--- a/Table/Table_xls/z职业配置表.xlsx
+++ b/Table/Table_xls/z职业配置表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -24,10 +24,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 1=物理输出
 2=法术输出
 3=治疗
@@ -41,10 +42,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 推荐加点的方案1-3</t>
         </r>
       </text>
@@ -54,10 +56,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 40级之前默认加点方案</t>
         </r>
       </text>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>id</t>
   </si>
@@ -355,7 +358,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>set:character image:</t>
     </r>
@@ -365,7 +367,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>character_btn2_zhanshi_b_1</t>
     </r>
@@ -602,7 +603,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>set:character image:</t>
     </r>
@@ -612,7 +612,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>character_btn2_lieren_b_1</t>
     </r>
@@ -1037,11 +1036,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1054,30 +1059,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,8 +1072,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,7 +1097,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,45 +1151,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1174,7 +1165,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1200,7 +1200,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,13 +1308,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,85 +1338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,55 +1356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1391,36 +1391,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1435,15 +1405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,8 +1447,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1499,152 +1499,152 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1653,6 +1653,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1718,12 +1721,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -2050,11 +2048,12 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:BE24"/>
   <sheetViews>
@@ -2063,7 +2062,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2188,7 +2187,7 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="AF1" t="s">
@@ -2260,10 +2259,10 @@
       <c r="BB1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="12" t="s">
         <v>55</v>
       </c>
       <c r="BE1" s="3" t="s">
@@ -2290,10 +2289,10 @@
         <v>60</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>16</v>
@@ -2301,8 +2300,8 @@
       <c r="J2">
         <v>16</v>
       </c>
-      <c r="K2">
-        <v>2200</v>
+      <c r="K2" s="8">
+        <v>1608</v>
       </c>
       <c r="L2">
         <v>1618</v>
@@ -2325,7 +2324,7 @@
       <c r="AD2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="9"/>
+      <c r="AE2" s="10"/>
       <c r="AF2" t="s">
         <v>61</v>
       </c>
@@ -2395,10 +2394,10 @@
       <c r="BB2">
         <v>1</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BC2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BD2" s="13" t="s">
         <v>69</v>
       </c>
       <c r="BE2" s="4" t="s">
@@ -2425,10 +2424,10 @@
         <v>74</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <v>16</v>
@@ -2436,8 +2435,8 @@
       <c r="J3">
         <v>16</v>
       </c>
-      <c r="K3">
-        <v>2200</v>
+      <c r="K3" s="8">
+        <v>1608</v>
       </c>
       <c r="L3">
         <v>1621</v>
@@ -2460,7 +2459,7 @@
       <c r="AD3" t="s">
         <v>74</v>
       </c>
-      <c r="AE3" s="9"/>
+      <c r="AE3" s="10"/>
       <c r="AF3" t="s">
         <v>75</v>
       </c>
@@ -2530,10 +2529,10 @@
       <c r="BB3">
         <v>2</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BC3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BD3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="BE3" s="4" t="s">
@@ -2560,10 +2559,10 @@
         <v>88</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I4">
         <v>16</v>
@@ -2571,8 +2570,8 @@
       <c r="J4">
         <v>16</v>
       </c>
-      <c r="K4">
-        <v>2200</v>
+      <c r="K4" s="8">
+        <v>1608</v>
       </c>
       <c r="L4">
         <v>1620</v>
@@ -2595,7 +2594,7 @@
       <c r="AD4" t="s">
         <v>88</v>
       </c>
-      <c r="AE4" s="9"/>
+      <c r="AE4" s="10"/>
       <c r="AF4" t="s">
         <v>89</v>
       </c>
@@ -2665,10 +2664,10 @@
       <c r="BB4">
         <v>1</v>
       </c>
-      <c r="BC4" s="12" t="s">
+      <c r="BC4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BD4" s="13" t="s">
         <v>93</v>
       </c>
       <c r="BE4" s="4" t="s">
@@ -2695,10 +2694,10 @@
         <v>98</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I5">
         <v>16</v>
@@ -2706,8 +2705,8 @@
       <c r="J5">
         <v>16</v>
       </c>
-      <c r="K5">
-        <v>2200</v>
+      <c r="K5" s="8">
+        <v>1608</v>
       </c>
       <c r="L5">
         <v>1622</v>
@@ -2730,7 +2729,7 @@
       <c r="AD5" t="s">
         <v>98</v>
       </c>
-      <c r="AE5" s="9"/>
+      <c r="AE5" s="10"/>
       <c r="AF5" t="s">
         <v>99</v>
       </c>
@@ -2800,10 +2799,10 @@
       <c r="BB5" s="7">
         <v>3</v>
       </c>
-      <c r="BC5" s="12" t="s">
+      <c r="BC5" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="BD5" s="12" t="s">
+      <c r="BD5" s="13" t="s">
         <v>106</v>
       </c>
       <c r="BE5" s="4" t="s">
@@ -2830,10 +2829,10 @@
         <v>111</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>16</v>
@@ -2841,8 +2840,8 @@
       <c r="J6">
         <v>16</v>
       </c>
-      <c r="K6">
-        <v>2200</v>
+      <c r="K6" s="8">
+        <v>1608</v>
       </c>
       <c r="L6">
         <v>1617</v>
@@ -2865,7 +2864,7 @@
       <c r="AD6" t="s">
         <v>111</v>
       </c>
-      <c r="AE6" s="9"/>
+      <c r="AE6" s="10"/>
       <c r="AF6" t="s">
         <v>112</v>
       </c>
@@ -2935,10 +2934,10 @@
       <c r="BB6">
         <v>1</v>
       </c>
-      <c r="BC6" s="12" t="s">
+      <c r="BC6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="BD6" s="12" t="s">
+      <c r="BD6" s="13" t="s">
         <v>119</v>
       </c>
       <c r="BE6" s="4" t="s">
@@ -2965,10 +2964,10 @@
         <v>124</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I7">
         <v>16</v>
@@ -2976,8 +2975,8 @@
       <c r="J7">
         <v>16</v>
       </c>
-      <c r="K7">
-        <v>2200</v>
+      <c r="K7" s="8">
+        <v>1608</v>
       </c>
       <c r="L7">
         <v>1619</v>
@@ -3000,7 +2999,7 @@
       <c r="AD7" t="s">
         <v>124</v>
       </c>
-      <c r="AE7" s="9"/>
+      <c r="AE7" s="10"/>
       <c r="AF7" s="4" t="s">
         <v>125</v>
       </c>
@@ -3070,10 +3069,10 @@
       <c r="BB7">
         <v>2</v>
       </c>
-      <c r="BC7" s="12" t="s">
+      <c r="BC7" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="BD7" s="12" t="s">
+      <c r="BD7" s="13" t="s">
         <v>130</v>
       </c>
       <c r="BE7" s="4" t="s">
@@ -3101,10 +3100,10 @@
         <v>135</v>
       </c>
       <c r="G8">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I8">
         <v>16</v>
@@ -3112,8 +3111,8 @@
       <c r="J8">
         <v>16</v>
       </c>
-      <c r="K8">
-        <v>2200</v>
+      <c r="K8" s="8">
+        <v>1608</v>
       </c>
       <c r="L8" s="7">
         <v>1691</v>
@@ -3151,7 +3150,7 @@
         <f t="shared" ref="AD8" si="1">AD6</f>
         <v>fashi</v>
       </c>
-      <c r="AE8" s="9"/>
+      <c r="AE8" s="10"/>
       <c r="AF8" s="7" t="s">
         <v>136</v>
       </c>
@@ -3221,13 +3220,13 @@
       <c r="BB8" s="7">
         <v>1</v>
       </c>
-      <c r="BC8" s="12" t="s">
+      <c r="BC8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="BD8" s="12" t="s">
+      <c r="BD8" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="BE8" s="10" t="s">
+      <c r="BE8" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3252,10 +3251,10 @@
         <v>144</v>
       </c>
       <c r="G9">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <v>16</v>
@@ -3263,8 +3262,8 @@
       <c r="J9">
         <v>16</v>
       </c>
-      <c r="K9">
-        <v>2200</v>
+      <c r="K9" s="8">
+        <v>1608</v>
       </c>
       <c r="L9" s="1">
         <v>1690</v>
@@ -3290,8 +3289,8 @@
         <f t="shared" ref="AD9" si="2">AD2</f>
         <v>zhanshi</v>
       </c>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="10" t="s">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="11" t="s">
         <v>145</v>
       </c>
       <c r="AG9" s="1" t="s">
@@ -3360,13 +3359,13 @@
       <c r="BB9" s="1">
         <v>1</v>
       </c>
-      <c r="BC9" s="12" t="s">
+      <c r="BC9" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="BD9" s="12" t="s">
+      <c r="BD9" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="BE9" s="10" t="s">
+      <c r="BE9" s="11" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3391,10 +3390,10 @@
         <v>154</v>
       </c>
       <c r="G10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I10">
         <v>16</v>
@@ -3402,8 +3401,8 @@
       <c r="J10">
         <v>16</v>
       </c>
-      <c r="K10">
-        <v>2200</v>
+      <c r="K10" s="8">
+        <v>1608</v>
       </c>
       <c r="L10" s="7">
         <v>1692</v>
@@ -3441,7 +3440,7 @@
         <f t="shared" ref="AD10" si="3">AD3</f>
         <v>qishi</v>
       </c>
-      <c r="AE10" s="9"/>
+      <c r="AE10" s="10"/>
       <c r="AF10" s="7" t="s">
         <v>155</v>
       </c>
@@ -3511,13 +3510,13 @@
       <c r="BB10" s="7">
         <v>3</v>
       </c>
-      <c r="BC10" s="12" t="s">
+      <c r="BC10" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="BD10" s="12" t="s">
+      <c r="BD10" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="BE10" s="10" t="s">
+      <c r="BE10" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3541,10 +3540,10 @@
         <v>60</v>
       </c>
       <c r="G11">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I11">
         <v>16</v>
@@ -3552,8 +3551,8 @@
       <c r="J11">
         <v>16</v>
       </c>
-      <c r="K11">
-        <v>2200</v>
+      <c r="K11" s="8">
+        <v>1608</v>
       </c>
       <c r="L11">
         <v>1607</v>
@@ -3576,7 +3575,7 @@
       <c r="AD11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AE11" s="9"/>
+      <c r="AE11" s="10"/>
       <c r="AF11" t="s">
         <v>161</v>
       </c>
@@ -3646,10 +3645,10 @@
       <c r="BB11">
         <v>1</v>
       </c>
-      <c r="BC11" s="13" t="s">
+      <c r="BC11" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="BD11" s="13" t="s">
+      <c r="BD11" s="14" t="s">
         <v>162</v>
       </c>
       <c r="BE11" s="4" t="s">
@@ -3676,10 +3675,10 @@
         <v>74</v>
       </c>
       <c r="G12">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>16</v>
@@ -3687,8 +3686,8 @@
       <c r="J12">
         <v>16</v>
       </c>
-      <c r="K12">
-        <v>2200</v>
+      <c r="K12" s="8">
+        <v>1608</v>
       </c>
       <c r="L12">
         <v>2205</v>
@@ -3711,7 +3710,7 @@
       <c r="AD12" t="s">
         <v>74</v>
       </c>
-      <c r="AE12" s="9"/>
+      <c r="AE12" s="10"/>
       <c r="AF12" t="s">
         <v>166</v>
       </c>
@@ -3781,10 +3780,10 @@
       <c r="BB12">
         <v>2</v>
       </c>
-      <c r="BC12" s="13" t="s">
+      <c r="BC12" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="BD12" s="13" t="s">
+      <c r="BD12" s="14" t="s">
         <v>167</v>
       </c>
       <c r="BE12" s="4" t="s">
@@ -3811,10 +3810,10 @@
         <v>171</v>
       </c>
       <c r="G13">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I13">
         <v>16</v>
@@ -3822,8 +3821,8 @@
       <c r="J13">
         <v>16</v>
       </c>
-      <c r="K13">
-        <v>2200</v>
+      <c r="K13" s="8">
+        <v>1608</v>
       </c>
       <c r="L13">
         <v>1611</v>
@@ -3846,7 +3845,7 @@
       <c r="AD13" t="s">
         <v>98</v>
       </c>
-      <c r="AE13" s="9"/>
+      <c r="AE13" s="10"/>
       <c r="AF13" t="s">
         <v>172</v>
       </c>
@@ -3916,10 +3915,10 @@
       <c r="BB13" s="7">
         <v>3</v>
       </c>
-      <c r="BC13" s="13" t="s">
+      <c r="BC13" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="BD13" s="13" t="s">
+      <c r="BD13" s="14" t="s">
         <v>173</v>
       </c>
       <c r="BE13" s="4" t="s">
@@ -3946,10 +3945,10 @@
         <v>74</v>
       </c>
       <c r="G14">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I14">
         <v>16</v>
@@ -3957,8 +3956,8 @@
       <c r="J14">
         <v>16</v>
       </c>
-      <c r="K14">
-        <v>2200</v>
+      <c r="K14" s="8">
+        <v>1608</v>
       </c>
       <c r="L14">
         <v>2208</v>
@@ -3981,7 +3980,7 @@
       <c r="AD14" t="s">
         <v>74</v>
       </c>
-      <c r="AE14" s="9"/>
+      <c r="AE14" s="10"/>
       <c r="AF14" t="s">
         <v>177</v>
       </c>
@@ -4051,10 +4050,10 @@
       <c r="BB14">
         <v>2</v>
       </c>
-      <c r="BC14" s="12" t="s">
+      <c r="BC14" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="BD14" s="12" t="s">
+      <c r="BD14" s="13" t="s">
         <v>179</v>
       </c>
       <c r="BE14" s="4" t="s">
@@ -4081,10 +4080,10 @@
         <v>124</v>
       </c>
       <c r="G15">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I15">
         <v>16</v>
@@ -4092,8 +4091,8 @@
       <c r="J15">
         <v>16</v>
       </c>
-      <c r="K15">
-        <v>2200</v>
+      <c r="K15" s="8">
+        <v>1608</v>
       </c>
       <c r="L15">
         <v>2207</v>
@@ -4116,7 +4115,7 @@
       <c r="AD15" t="s">
         <v>124</v>
       </c>
-      <c r="AE15" s="9"/>
+      <c r="AE15" s="10"/>
       <c r="AF15" t="s">
         <v>183</v>
       </c>
@@ -4186,10 +4185,10 @@
       <c r="BB15">
         <v>2</v>
       </c>
-      <c r="BC15" s="12" t="s">
+      <c r="BC15" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="BD15" s="12" t="s">
+      <c r="BD15" s="13" t="s">
         <v>185</v>
       </c>
       <c r="BE15" s="4" t="s">
@@ -4216,10 +4215,10 @@
         <v>74</v>
       </c>
       <c r="G16">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H16">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -4227,8 +4226,8 @@
       <c r="J16">
         <v>16</v>
       </c>
-      <c r="K16">
-        <v>2200</v>
+      <c r="K16" s="8">
+        <v>1608</v>
       </c>
       <c r="L16">
         <v>2206</v>
@@ -4251,7 +4250,7 @@
       <c r="AD16" t="s">
         <v>74</v>
       </c>
-      <c r="AE16" s="9"/>
+      <c r="AE16" s="10"/>
       <c r="AF16" t="s">
         <v>189</v>
       </c>
@@ -4321,10 +4320,10 @@
       <c r="BB16">
         <v>2</v>
       </c>
-      <c r="BC16" s="12" t="s">
+      <c r="BC16" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="BD16" s="12" t="s">
+      <c r="BD16" s="13" t="s">
         <v>191</v>
       </c>
       <c r="BE16" s="4" t="s">

--- a/Table/Table_xls/z职业配置表.xlsx
+++ b/Table/Table_xls/z职业配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 1=物理输出
 2=法术输出
 3=治疗
@@ -42,11 +41,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 推荐加点的方案1-3</t>
         </r>
       </text>
@@ -56,11 +54,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">Administrator:
+          <t>Administrator:
 40级之前默认加点方案</t>
         </r>
       </text>
@@ -70,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -1005,7 +1002,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1029,15 +1026,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,31 +1080,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,15 +1097,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1111,25 +1146,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,31 +1162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,6 +1172,11 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1200,7 +1202,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,43 +1292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,49 +1310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,7 +1328,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,55 +1382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,45 +1421,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,17 +1450,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1499,10 +1501,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1511,133 +1513,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1722,6 +1724,11 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2048,12 +2055,11 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:BE24"/>
   <sheetViews>
@@ -2065,35 +2071,35 @@
       <selection pane="bottomRight" activeCell="K2" sqref="K2:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="29.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="13.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="26.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="25.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="16.4285714285714" customWidth="1"/>
-    <col min="8" max="8" width="15.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="13.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="18.4285714285714" customWidth="1"/>
-    <col min="11" max="12" width="19.4285714285714" customWidth="1"/>
-    <col min="13" max="26" width="9.14285714285714" customWidth="1"/>
-    <col min="27" max="27" width="13.7142857142857" customWidth="1"/>
-    <col min="28" max="29" width="9.14285714285714" customWidth="1"/>
-    <col min="30" max="30" width="17.7142857142857" customWidth="1"/>
-    <col min="32" max="32" width="52.5714285714286" customWidth="1"/>
-    <col min="33" max="33" width="16.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.1388888888889" customWidth="1"/>
+    <col min="3" max="3" width="29.8611111111111" customWidth="1"/>
+    <col min="4" max="4" width="13.1388888888889" customWidth="1"/>
+    <col min="5" max="5" width="26.8611111111111" customWidth="1"/>
+    <col min="6" max="6" width="25.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="16.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="15.5740740740741" customWidth="1"/>
+    <col min="9" max="9" width="13.5740740740741" customWidth="1"/>
+    <col min="10" max="10" width="18.4259259259259" customWidth="1"/>
+    <col min="11" max="12" width="19.4259259259259" customWidth="1"/>
+    <col min="13" max="26" width="9.13888888888889" customWidth="1"/>
+    <col min="27" max="27" width="13.712962962963" customWidth="1"/>
+    <col min="28" max="29" width="9.13888888888889" customWidth="1"/>
+    <col min="30" max="30" width="17.712962962963" customWidth="1"/>
+    <col min="32" max="32" width="52.5740740740741" customWidth="1"/>
+    <col min="33" max="33" width="16.1388888888889" customWidth="1"/>
     <col min="34" max="34" width="24" customWidth="1"/>
-    <col min="35" max="39" width="8.28571428571429" customWidth="1"/>
-    <col min="40" max="40" width="16.5714285714286" customWidth="1"/>
-    <col min="41" max="41" width="25.8571428571429" customWidth="1"/>
-    <col min="42" max="46" width="8.28571428571429" customWidth="1"/>
-    <col min="47" max="47" width="16.1428571428571" customWidth="1"/>
+    <col min="35" max="39" width="8.28703703703704" customWidth="1"/>
+    <col min="40" max="40" width="16.5740740740741" customWidth="1"/>
+    <col min="41" max="41" width="25.8611111111111" customWidth="1"/>
+    <col min="42" max="46" width="8.28703703703704" customWidth="1"/>
+    <col min="47" max="47" width="16.1388888888889" customWidth="1"/>
     <col min="48" max="48" width="24" customWidth="1"/>
-    <col min="49" max="53" width="8.28571428571429" customWidth="1"/>
-    <col min="54" max="54" width="13.1428571428571" customWidth="1"/>
-    <col min="56" max="56" width="54.1428571428571" customWidth="1"/>
-    <col min="57" max="57" width="38.2857142857143" customWidth="1"/>
+    <col min="49" max="53" width="8.28703703703704" customWidth="1"/>
+    <col min="54" max="54" width="13.1388888888889" customWidth="1"/>
+    <col min="56" max="56" width="54.1388888888889" customWidth="1"/>
+    <col min="57" max="57" width="38.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="77.25" customHeight="1" spans="1:57">
@@ -2269,7 +2275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:57">
+    <row r="2" ht="14.4" spans="1:57">
       <c r="A2" s="2">
         <v>11</v>
       </c>
@@ -2404,7 +2410,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="1:57">
+    <row r="3" ht="14.4" spans="1:57">
       <c r="A3" s="2">
         <v>12</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:57">
+    <row r="4" ht="14.4" spans="1:57">
       <c r="A4" s="2">
         <v>13</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:57">
+    <row r="5" ht="14.4" spans="1:57">
       <c r="A5" s="2">
         <v>14</v>
       </c>
@@ -2809,7 +2815,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:57">
+    <row r="6" ht="14.4" spans="1:57">
       <c r="A6" s="2">
         <v>15</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:57">
+    <row r="7" ht="15" spans="1:57">
       <c r="A7" s="2">
         <v>16</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="13.5" spans="1:57">
+    <row r="8" s="1" customFormat="1" ht="14.4" spans="1:57">
       <c r="A8" s="6">
         <v>17</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="13.5" spans="1:57">
+    <row r="9" s="1" customFormat="1" ht="14.4" spans="1:57">
       <c r="A9" s="6">
         <v>18</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="13.5" spans="1:57">
+    <row r="10" s="1" customFormat="1" ht="14.4" spans="1:57">
       <c r="A10" s="6">
         <v>19</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:57">
+    <row r="11" ht="14.4" spans="1:57">
       <c r="A11" s="6">
         <v>20</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:57">
+    <row r="12" ht="14.4" spans="1:57">
       <c r="A12" s="2">
         <v>21</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:57">
+    <row r="13" ht="14.4" spans="1:57">
       <c r="A13" s="2">
         <v>22</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:57">
+    <row r="14" ht="14.4" spans="1:57">
       <c r="A14" s="2">
         <v>23</v>
       </c>
@@ -4060,7 +4066,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:57">
+    <row r="15" ht="15" spans="1:57">
       <c r="A15" s="2">
         <v>24</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" ht="13.5" spans="1:57">
+    <row r="16" ht="14.4" spans="1:57">
       <c r="A16" s="2">
         <v>25</v>
       </c>
